--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -16,18 +16,18 @@
     <sheet name="cell_suspension" sheetId="7" r:id="rId7"/>
     <sheet name="lib_prep" sheetId="8" r:id="rId8"/>
     <sheet name="sequencing" sheetId="9" r:id="rId9"/>
-    <sheet name="file" sheetId="10" r:id="rId10"/>
-    <sheet name="analysis_derived_data" sheetId="11" r:id="rId11"/>
-    <sheet name="raw_data_processing" sheetId="12" r:id="rId12"/>
-    <sheet name="downstream_processing" sheetId="13" r:id="rId13"/>
-    <sheet name="data_availability_checklist" sheetId="14" r:id="rId14"/>
+    <sheet name="analysis_derived_data" sheetId="10" r:id="rId10"/>
+    <sheet name="raw_data_processing" sheetId="11" r:id="rId11"/>
+    <sheet name="downstream_processing" sheetId="12" r:id="rId12"/>
+    <sheet name="data_availability_checklist" sheetId="13" r:id="rId13"/>
+    <sheet name="file" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="771">
   <si>
     <t>key</t>
   </si>
@@ -50,10 +50,10 @@
     <t>version_faang_sc_rnaseq</t>
   </si>
   <si>
-    <t>Single-cell RNA Sequencing [Functional Annotation of Animal Genomes (FAANG)]</t>
-  </si>
-  <si>
-    <t>TBC faang_sc_rnaseq</t>
+    <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Functional Annotation of Animal Genomes (FAANG)]</t>
+  </si>
+  <si>
+    <t>Ribonucleic Acid (RNA) sequencing of individual cells for functional annotation of animal genomes (FAANG) with the aim to improve understanding of animal genomics and gene functions.</t>
   </si>
   <si>
     <t>faang</t>
@@ -89,7 +89,7 @@
     <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
   </si>
   <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
+    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behaviour. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
   </si>
   <si>
     <t>The type of material being described.</t>
@@ -113,12 +113,18 @@
     <t>FILL OUT INFORMATION BELOW THIS ROW</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -128,25 +134,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -158,7 +182,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -284,1116 +308,1134 @@
     <t>A link to the protocol for specimen collection.</t>
   </si>
   <si>
+    <t>e.g. https://data.faang.org/api/fire_api/samples/WU_SOP_GENESWITCH_PIGLET_AND_FETUS_D70_SAMPLING_20210907.pdf</t>
+  </si>
+  <si>
+    <t>Sample name or BioSample ID for an animal record.</t>
+  </si>
+  <si>
+    <t>e.g. SAMEA112465628</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua And Barbuda</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore And Cartier Islands</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas Da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgian Congo</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Bosnia And Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Guiana</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote D‚Äôivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechoslovakia</t>
+  </si>
+  <si>
+    <t>Democratic Republic Of The Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Federated States Of</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Former Yugoslav Republic Of Macedonia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern And Antarctic Lands</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island And Mcdonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle Of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan De Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic Of The Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts And Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Saint Pierre And Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent And The Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome And Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Serbia And Montenegro</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Siam</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia And The South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>State Of Palestine</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>The Former Yugoslav Republic Of Macedonia</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad And Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks And Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Usa</t>
+  </si>
+  <si>
+    <t>Ussr</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis And Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Yugoslavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zaire </t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>dissociation_protocol_id</t>
+  </si>
+  <si>
+    <t>protocol_name</t>
+  </si>
+  <si>
+    <t>enrichment_markers</t>
+  </si>
+  <si>
+    <t>isolation_kit</t>
+  </si>
+  <si>
+    <t>literature_source_reference</t>
+  </si>
+  <si>
+    <t>protocols_io_reference</t>
+  </si>
+  <si>
+    <t>single_cell_isolation_protocol</t>
+  </si>
+  <si>
+    <t>workflow_hub_sop_reference</t>
+  </si>
+  <si>
+    <t>dissociation_protocol_method</t>
+  </si>
+  <si>
+    <t>single_cell_quality_metric</t>
+  </si>
+  <si>
+    <t>cell_type</t>
+  </si>
+  <si>
+    <t>tissue_dissociation</t>
+  </si>
+  <si>
+    <t>enrichment_markers (optional)</t>
+  </si>
+  <si>
+    <t>isolation_kit (optional)</t>
+  </si>
+  <si>
+    <t>literature_source_reference (optional)</t>
+  </si>
+  <si>
+    <t>protocols_io_reference (optional)</t>
+  </si>
+  <si>
+    <t>workflow_hub_sop_reference (optional)</t>
+  </si>
+  <si>
+    <t>dissociation_protocol_method (optional)</t>
+  </si>
+  <si>
+    <t>single_cell_quality_metric (optional)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric code for the dissociation protocol in the study</t>
+  </si>
+  <si>
+    <t>e.g. disProtocol123</t>
+  </si>
+  <si>
+    <t>A descriptive name of the protocol used for single-cell sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. 10X Genomics Single Cell 3' Library Prep</t>
+  </si>
+  <si>
+    <t>Description of the specificity markers used to isolate cell populations, e.g. 'CD45+'. Please contact FAANG DCC to add more terms.</t>
+  </si>
+  <si>
+    <t>e.g. CD45</t>
+  </si>
+  <si>
+    <t>The kit used to isolate the cells.</t>
+  </si>
+  <si>
+    <t>e.g. BD Rhapsody Single-Cell Analysis System</t>
+  </si>
+  <si>
+    <t>Reference to literature sources that describe the protocol or methods used.</t>
+  </si>
+  <si>
+    <t>e.g. Doe et al. (2024), 'Single-cell RNA-seq: A comprehensive overview'</t>
+  </si>
+  <si>
+    <t>Reference link to protocols.io for additional details on the protocol.</t>
+  </si>
+  <si>
+    <t>e.g. https://www.protocols.io/view/sample-protocol-b2ubqesn</t>
+  </si>
+  <si>
+    <t>Link to protocol describing how the single cells were separated into a single-cell suspension.</t>
+  </si>
+  <si>
+    <t>e.g. https://api.faang.org/files/protocols/samples/INRAE_SOP_PLUS4PIGS_EMBRYOS_DISSOCIATION_PROTO4_20240710.pdf</t>
+  </si>
+  <si>
+    <t>Reference to the Standard Operating Procedure (SOP) in workflow hub.</t>
+  </si>
+  <si>
+    <t>e.g. https://workflowhub.eu/works/12345</t>
+  </si>
+  <si>
+    <t>The method used to dissociate tissues into single cells.</t>
+  </si>
+  <si>
+    <t>e.g. Mechanical and enzymatic dissociation</t>
+  </si>
+  <si>
+    <t>Metrics used to assess the quality of single cells before sequencing.</t>
+  </si>
+  <si>
+    <t>e.g. Cell viability percentage</t>
+  </si>
+  <si>
+    <t>Provide a cell type from the CL ontology.</t>
+  </si>
+  <si>
+    <t>e.g. blastocyst</t>
+  </si>
+  <si>
+    <t>The method by which tissues are dissociated into purified or single cells in suspension. Examples are 'proteolysis', 'mesh passage', 'fine needle trituration'. For blood, milk and other fluids, where there is no tissue dissociation use 'fluids'. Please contact FAANG DCC to add more terms.</t>
+  </si>
+  <si>
+    <t>e.g. proteolysis</t>
+  </si>
+  <si>
+    <t>Sample name or BioSample ID for a specimen record.</t>
+  </si>
+  <si>
+    <t>e.g. SSC_INRAE_GUT_ORGANOID_100I</t>
+  </si>
+  <si>
+    <t>cell_suspension_id</t>
+  </si>
+  <si>
+    <t>suspension_type</t>
+  </si>
+  <si>
+    <t>purification_protocol</t>
+  </si>
+  <si>
+    <t>cell_count</t>
+  </si>
+  <si>
+    <t>cell_number</t>
+  </si>
+  <si>
+    <t>cell_viability</t>
+  </si>
+  <si>
+    <t>cell_viability_assessment_method</t>
+  </si>
+  <si>
+    <t>cell_size</t>
+  </si>
+  <si>
+    <t>suspension_volume_µl</t>
+  </si>
+  <si>
+    <t>suspension_concentration_cells_per_µl</t>
+  </si>
+  <si>
+    <t>suspension_dilution</t>
+  </si>
+  <si>
+    <t>loading_volume_µl</t>
+  </si>
+  <si>
+    <t>suspension_dilution_buffer</t>
+  </si>
+  <si>
+    <t>cell_count (optional)</t>
+  </si>
+  <si>
+    <t>cell_number (optional)</t>
+  </si>
+  <si>
+    <t>cell_viability (optional)</t>
+  </si>
+  <si>
+    <t>cell_viability_assessment_method (optional)</t>
+  </si>
+  <si>
+    <t>cell_size (optional)</t>
+  </si>
+  <si>
+    <t>suspension_volume_µl (optional)</t>
+  </si>
+  <si>
+    <t>suspension_concentration_cells_per_µl (optional)</t>
+  </si>
+  <si>
+    <t>suspension_dilution (optional)</t>
+  </si>
+  <si>
+    <t>loading_volume_µl (optional)</t>
+  </si>
+  <si>
+    <t>suspension_dilution_buffer (optional)</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric reference or identifier assigned to the cell suspension for the sample in the study.</t>
+  </si>
+  <si>
+    <t>e.g. sample123</t>
+  </si>
+  <si>
+    <t>A unique alphanumeric code for the cell suspension for the sample</t>
+  </si>
+  <si>
+    <t>e.g. cellSusp123</t>
+  </si>
+  <si>
+    <t>The type of suspension used to keep cells in solution during processing.</t>
+  </si>
+  <si>
+    <t>e.g. Cell</t>
+  </si>
+  <si>
+    <t>Link to protocol describing how the cells were purified.</t>
+  </si>
+  <si>
     <t xml:space="preserve">e.g. </t>
   </si>
   <si>
-    <t>Sample name or BioSample ID for an animal record.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua And Barbuda</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore And Cartier Islands</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas Da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgian Congo</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Bosnia And Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Guiana</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burma</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote D‚Äôivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechoslovakia</t>
-  </si>
-  <si>
-    <t>Democratic Republic Of The Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Eswatini</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Federated States Of</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Former Yugoslav Republic Of Macedonia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern And Antarctic Lands</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island And Mcdonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle Of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan De Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic Of The Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts And Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
-    <t>Saint Pierre And Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent And The Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome And Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Serbia And Montenegro</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Siam</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia And The South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>State Of Palestine</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>The Former Yugoslav Republic Of Macedonia</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad And Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks And Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Usa</t>
-  </si>
-  <si>
-    <t>Ussr</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis And Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Yugoslavia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zaire </t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>dissociation_protocol_id</t>
-  </si>
-  <si>
-    <t>protocol_name</t>
-  </si>
-  <si>
-    <t>enrichment_markers</t>
-  </si>
-  <si>
-    <t>isolation_kit</t>
-  </si>
-  <si>
-    <t>literature_source_reference</t>
-  </si>
-  <si>
-    <t>protocols_io_reference</t>
-  </si>
-  <si>
-    <t>single_cell_isolation_protocol</t>
-  </si>
-  <si>
-    <t>workflow_hub_sop_reference</t>
-  </si>
-  <si>
-    <t>dissociation_protocol_method</t>
-  </si>
-  <si>
-    <t>single_cell_quality_metric</t>
-  </si>
-  <si>
-    <t>cell_type</t>
-  </si>
-  <si>
-    <t>tissue_dissociation</t>
-  </si>
-  <si>
-    <t>enrichment_markers (optional)</t>
-  </si>
-  <si>
-    <t>isolation_kit (optional)</t>
-  </si>
-  <si>
-    <t>literature_source_reference (optional)</t>
-  </si>
-  <si>
-    <t>protocols_io_reference (optional)</t>
-  </si>
-  <si>
-    <t>workflow_hub_sop_reference (optional)</t>
-  </si>
-  <si>
-    <t>dissociation_protocol_method (optional)</t>
-  </si>
-  <si>
-    <t>single_cell_quality_metric (optional)</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric code for the dissociation protocol in the study</t>
-  </si>
-  <si>
-    <t>e.g. disProtocol123</t>
-  </si>
-  <si>
-    <t>A descriptive name of the protocol used for single-cell sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. 10X Genomics Single Cell 3' Library Prep</t>
-  </si>
-  <si>
-    <t>Description of the specificity markers used to isolate cell populations, e.g. 'CD45+'. Please contact FAANG DCC to add more terms.</t>
-  </si>
-  <si>
-    <t>e.g. CD45</t>
-  </si>
-  <si>
-    <t>The kit used to isolate the cells.</t>
-  </si>
-  <si>
-    <t>e.g. BD Rhapsody Single-Cell Analysis System</t>
-  </si>
-  <si>
-    <t>Reference to literature sources that describe the protocol or methods used.</t>
-  </si>
-  <si>
-    <t>e.g. Doe et al. (2024), 'Single-cell RNA-seq: A comprehensive overview'</t>
-  </si>
-  <si>
-    <t>Reference link to protocols.io for additional details on the protocol.</t>
-  </si>
-  <si>
-    <t>e.g. https://www.protocols.io/view/sample-protocol-b2ubqesn</t>
-  </si>
-  <si>
-    <t>Link to protocol describing how the single cells were separated into a single-cell suspension.</t>
-  </si>
-  <si>
-    <t>Reference to the Standard Operating Procedure (SOP) in workflow hub.</t>
-  </si>
-  <si>
-    <t>e.g. https://workflowhub.eu/works/12345</t>
-  </si>
-  <si>
-    <t>The method used to dissociate tissues into single cells.</t>
-  </si>
-  <si>
-    <t>e.g. Mechanical and enzymatic dissociation</t>
-  </si>
-  <si>
-    <t>Metrics used to assess the quality of single cells before sequencing.</t>
-  </si>
-  <si>
-    <t>e.g. Cell viability percentage</t>
-  </si>
-  <si>
-    <t>Provide a cell type from the CL ontology.</t>
-  </si>
-  <si>
-    <t>The method by which tissues are dissociated into purified or single cells in suspension. Examples are 'proteolysis', 'mesh passage', 'fine needle trituration'. For blood, milk and other fluids, where there is no tissue dissociation use 'fluids'. Please contact FAANG DCC to add more terms.</t>
-  </si>
-  <si>
-    <t>Sample name or BioSample ID for a specimen record.</t>
-  </si>
-  <si>
-    <t>cell_suspension_id</t>
-  </si>
-  <si>
-    <t>suspension_type</t>
-  </si>
-  <si>
-    <t>purification_protocol</t>
-  </si>
-  <si>
-    <t>cell_count</t>
-  </si>
-  <si>
-    <t>cell_number</t>
-  </si>
-  <si>
-    <t>cell_viability</t>
-  </si>
-  <si>
-    <t>cell_viability_assessment_method</t>
-  </si>
-  <si>
-    <t>cell_size</t>
-  </si>
-  <si>
-    <t>suspension_volume_µl</t>
-  </si>
-  <si>
-    <t>suspension_concentration_cells_per_µl</t>
-  </si>
-  <si>
-    <t>suspension_dilution</t>
-  </si>
-  <si>
-    <t>loading_volume_µl</t>
-  </si>
-  <si>
-    <t>suspension_dilution_buffer</t>
-  </si>
-  <si>
-    <t>cell_count (optional)</t>
-  </si>
-  <si>
-    <t>cell_number (optional)</t>
-  </si>
-  <si>
-    <t>cell_viability (optional)</t>
-  </si>
-  <si>
-    <t>cell_viability_assessment_method (optional)</t>
-  </si>
-  <si>
-    <t>cell_size (optional)</t>
-  </si>
-  <si>
-    <t>suspension_volume_µl (optional)</t>
-  </si>
-  <si>
-    <t>suspension_concentration_cells_per_µl (optional)</t>
-  </si>
-  <si>
-    <t>suspension_dilution (optional)</t>
-  </si>
-  <si>
-    <t>loading_volume_µl (optional)</t>
-  </si>
-  <si>
-    <t>suspension_dilution_buffer (optional)</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric reference or identifier assigned to the cell suspension for the sample in the study.</t>
-  </si>
-  <si>
-    <t>e.g. sample123</t>
-  </si>
-  <si>
-    <t>A unique alphanumeric code for the cell suspension for the sample</t>
-  </si>
-  <si>
-    <t>e.g. cellSusp123</t>
-  </si>
-  <si>
-    <t>The type of suspension used to keep cells in solution during processing.</t>
-  </si>
-  <si>
-    <t>e.g. Cell</t>
-  </si>
-  <si>
-    <t>Link to protocol describing how the cells were purified.</t>
-  </si>
-  <si>
     <t>An number representing the number of cells in the sequencing library.</t>
   </si>
   <si>
@@ -1856,10 +1898,350 @@
     <t>e.g. 75</t>
   </si>
   <si>
+    <t>file_derived_from</t>
+  </si>
+  <si>
+    <t>inferred_cell_type</t>
+  </si>
+  <si>
+    <t>post_analysis_cell_well_quality</t>
+  </si>
+  <si>
+    <t>other_derived_cell_attributes</t>
+  </si>
+  <si>
+    <t>file_derived_from (optional)</t>
+  </si>
+  <si>
+    <t>inferred_cell_type (optional)</t>
+  </si>
+  <si>
+    <t>post_analysis_cell_well_quality (optional)</t>
+  </si>
+  <si>
+    <t>other_derived_cell_attributes (optional)</t>
+  </si>
+  <si>
+    <t>The name of the file that was used to generate the analysis derived data.</t>
+  </si>
+  <si>
+    <t>e.g. file1_sequencing.json</t>
+  </si>
+  <si>
+    <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
+  </si>
+  <si>
+    <t>e.g. type II bipolar neuron</t>
+  </si>
+  <si>
+    <t>Performer defined measure of whether the read output
+from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
+  </si>
+  <si>
+    <t>e.g. Passed</t>
+  </si>
+  <si>
+    <t>Any other cell level measurement or annotation as result of the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. cluster</t>
+  </si>
+  <si>
+    <t>reference_genome</t>
+  </si>
+  <si>
+    <t>genome_annotation</t>
+  </si>
+  <si>
+    <t>annotation_filtering</t>
+  </si>
+  <si>
+    <t>genes_vs_exons</t>
+  </si>
+  <si>
+    <t>library_structure</t>
+  </si>
+  <si>
+    <t>mapping_and_demultiplexing_software</t>
+  </si>
+  <si>
+    <t>read_mapping_statistics</t>
+  </si>
+  <si>
+    <t>sequencing_saturation</t>
+  </si>
+  <si>
+    <t>umis_barcode_distribution_qc</t>
+  </si>
+  <si>
+    <t>cell_non_cell_filtering_strategy</t>
+  </si>
+  <si>
+    <t>other_quality_filters_applied</t>
+  </si>
+  <si>
+    <t>ambient_rna_qc</t>
+  </si>
+  <si>
+    <t>predicted_doublet_rate_qc</t>
+  </si>
+  <si>
+    <t>individual_organism_snp_demultiplexing</t>
+  </si>
+  <si>
+    <t>reference_genome (optional)</t>
+  </si>
+  <si>
+    <t>genome_annotation (optional)</t>
+  </si>
+  <si>
+    <t>annotation_filtering (optional)</t>
+  </si>
+  <si>
+    <t>genes_vs_exons (optional)</t>
+  </si>
+  <si>
+    <t>library_structure (optional)</t>
+  </si>
+  <si>
+    <t>mapping_and_demultiplexing_software (optional)</t>
+  </si>
+  <si>
+    <t>read_mapping_statistics (optional)</t>
+  </si>
+  <si>
+    <t>sequencing_saturation (optional)</t>
+  </si>
+  <si>
+    <t>umis_barcode_distribution_qc (optional)</t>
+  </si>
+  <si>
+    <t>cell_non_cell_filtering_strategy (optional)</t>
+  </si>
+  <si>
+    <t>other_quality_filters_applied (optional)</t>
+  </si>
+  <si>
+    <t>ambient_rna_qc (optional)</t>
+  </si>
+  <si>
+    <t>predicted_doublet_rate_qc (optional)</t>
+  </si>
+  <si>
+    <t>individual_organism_snp_demultiplexing (optional)</t>
+  </si>
+  <si>
+    <t>Indicate version and include stable link to genome data (or attach genome fasta file).</t>
+  </si>
+  <si>
+    <t>e.g. GRCh38, https://example.org/grch38.fa</t>
+  </si>
+  <si>
+    <t>Indicate version and include stable link. Also indicate if any modification to the original annotation has been applied (e.g. 3' UTR extension) and include modified annotation file employed in the analysis.</t>
+  </si>
+  <si>
+    <t>e.g. Ensembl v101, https://example.org/ensembl_v101.gtf</t>
+  </si>
+  <si>
+    <t>Indicate which features were filtered (i.e. protein coding, pseudo-genes, TCRs, etc.)</t>
+  </si>
+  <si>
+    <t>e.g. Filtered to include only protein-coding genes</t>
+  </si>
+  <si>
+    <t>Quantification using whole gene intervals or exons.</t>
+  </si>
+  <si>
+    <t>e.g. Exon quantification</t>
+  </si>
+  <si>
+    <t>seqspec format</t>
+  </si>
+  <si>
+    <t>e.g. Single-cell 3' library</t>
+  </si>
+  <si>
+    <t>Reads/UMI</t>
+  </si>
+  <si>
+    <t>e.g. Cell Ranger 6.0.0</t>
+  </si>
+  <si>
+    <t>Statistics of the Reads or Unique Molecular Identifier (UMI).</t>
+  </si>
+  <si>
+    <t>e.g. 80% reads mapped to reference</t>
+  </si>
+  <si>
+    <t>Depending on number of cells recovered (not targeted) and technology</t>
+  </si>
+  <si>
+    <t>e.g. 95% sequencing saturation</t>
+  </si>
+  <si>
+    <t>Show Unique Molecular Identifiers (UMIs) per barcode distribution and threshold applied</t>
+  </si>
+  <si>
+    <t>e.g. Threshold: 10 UMIs per barcode</t>
+  </si>
+  <si>
+    <t>Unique Molecular Identifier (UMI) threshold used to discriminate cells from non-cells. Description of algorithm (if any) and parameters used to determine cells or non-cells.</t>
+  </si>
+  <si>
+    <t>e.g. Threshold: 5 UMIs for cell detection</t>
+  </si>
+  <si>
+    <t>Cells/nuclei discarded based on % mitochondrial reads, % rRNA reads, etc.</t>
+  </si>
+  <si>
+    <t>e.g. Cells with &gt;20% mitochondrial reads discarded</t>
+  </si>
+  <si>
+    <t>Report % UMIs in background cell barcodes, and algorithm (if any) used to remove ambient RNA</t>
+  </si>
+  <si>
+    <t>e.g. Ambient RNA removed if &gt;5% UMIs in background barcodes</t>
+  </si>
+  <si>
+    <t>e.g. Predicted doublet rate: 1.5%</t>
+  </si>
+  <si>
+    <t>If carried out, show SNP partitioning quality (e.g. SNP UMAP embedding or covariance matrix), algorithm used</t>
+  </si>
+  <si>
+    <t>e.g. SNP UMAP embedding using CellSNP</t>
+  </si>
+  <si>
+    <t>clustering_algorithm_and_version</t>
+  </si>
+  <si>
+    <t>clustering_parameters</t>
+  </si>
+  <si>
+    <t>integration_batch_correction</t>
+  </si>
+  <si>
+    <t>clustering_algorithm_and_version (optional)</t>
+  </si>
+  <si>
+    <t>clustering_parameters (optional)</t>
+  </si>
+  <si>
+    <t>integration_batch_correction (optional)</t>
+  </si>
+  <si>
+    <t>If compared/integrated with existing datasets</t>
+  </si>
+  <si>
+    <t>e.g. Louvain 0.8.0</t>
+  </si>
+  <si>
+    <t>e.g. Resolution: 0.6, K-nearest neighbors: 10</t>
+  </si>
+  <si>
+    <t>e.g. Harmony v1.0</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>umi_count_matrix</t>
+  </si>
+  <si>
+    <t>ensembl_ids</t>
+  </si>
+  <si>
+    <t>functional_gene_annotations</t>
+  </si>
+  <si>
+    <t>protein_models</t>
+  </si>
+  <si>
+    <t>cell_metadata</t>
+  </si>
+  <si>
+    <t>cluster_level_normalised_expression_tables</t>
+  </si>
+  <si>
+    <t>other_resource_files</t>
+  </si>
+  <si>
+    <t>source_code (optional)</t>
+  </si>
+  <si>
+    <t>umi_count_matrix (optional)</t>
+  </si>
+  <si>
+    <t>ensembl_ids (optional)</t>
+  </si>
+  <si>
+    <t>functional_gene_annotations (optional)</t>
+  </si>
+  <si>
+    <t>protein_models (optional)</t>
+  </si>
+  <si>
+    <t>cell_metadata (optional)</t>
+  </si>
+  <si>
+    <t>cluster_level_normalised_expression_tables (optional)</t>
+  </si>
+  <si>
+    <t>other_resource_files (optional)</t>
+  </si>
+  <si>
+    <t>If any newly developed code/software has been used in the processing and downstream analysis of the dataset.</t>
+  </si>
+  <si>
+    <t>e.g. Source code is hosted on GitHub and includes custom algorithms for UMI count normalization. The repository can be found at: https://github.com/user/umi-normalization.</t>
+  </si>
+  <si>
+    <t>Gene x cell matrix with UMI counts for each gene in each cell.</t>
+  </si>
+  <si>
+    <t>e.g. The UMI count matrix is stored in a CSV file with gene IDs as rows (e.g., ENSG00000139618) and cell barcodes as columns (e.g., Cell_001, Cell_002). The matrix file is available at: https://example.com/umi_count_matrix.csv.</t>
+  </si>
+  <si>
+    <t>Gene or transcript names should be listed as Ensembl (or other standardized ID), with gene short names in metadata.</t>
+  </si>
+  <si>
+    <t>e.g. ENSG00000139618</t>
+  </si>
+  <si>
+    <t>Any functional annotation generated/used (gene names, GOs, structural domains, etc.).</t>
+  </si>
+  <si>
+    <t>e.g. Functional gene annotations, including Gene Ontology (GO) terms, are provided in the metadata. For example, the gene 'ENSG00000139618' (BRCA1) is annotated with the GO term 'GO:0003674' (DNA binding).</t>
+  </si>
+  <si>
+    <t>FASTA file with (or stable link to) the predicted proteins associated to genes in the UMI count matrix and matching IDs.</t>
+  </si>
+  <si>
+    <t>e.g. The protein sequences for genes are provided in a FASTA file available at: https://example.com/protein_models.fasta, where each protein sequence is linked to the corresponding gene ID.</t>
+  </si>
+  <si>
+    <t>Table mapping cell IDs to cluster/cell type/broad cell type annotations.</t>
+  </si>
+  <si>
+    <t>e.g. Cell metadata includes information such as cell type annotations ('Tumor', 'Normal') and experimental conditions ('Control', 'Treatment'). This data is available in a table at: https://example.com/cell_metadata.csv.</t>
+  </si>
+  <si>
+    <t>Expression tables that show normalised gene expression at the cluster or cell-type level.</t>
+  </si>
+  <si>
+    <t>e.g. Normalised gene expression data at the cluster level is provided in a tab-delimited text file. For example, gene 'ENSG00000139618' (BRCA1) has expression values for clusters: Cluster_1: 1200, Cluster_2: 900. The full expression table is available at: https://example.com/cluster_level_expression.csv.</t>
+  </si>
+  <si>
+    <t>Necessary to re-use and interpret the data. E.g. barcode information in complex, serial multiplexing protocols (clicktags).</t>
+  </si>
+  <si>
+    <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
+  </si>
+  <si>
+    <t>lib_prep_id</t>
+  </si>
+  <si>
     <t>file_id</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>read_1_file</t>
@@ -1950,7 +2332,7 @@
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
@@ -1960,346 +2342,6 @@
   </si>
   <si>
     <t>e.g. filename1.txt</t>
-  </si>
-  <si>
-    <t>file_derived_from</t>
-  </si>
-  <si>
-    <t>inferred_cell_type</t>
-  </si>
-  <si>
-    <t>post_analysis_cell_well_quality</t>
-  </si>
-  <si>
-    <t>other_derived_cell_attributes</t>
-  </si>
-  <si>
-    <t>file_derived_from (optional)</t>
-  </si>
-  <si>
-    <t>inferred_cell_type (optional)</t>
-  </si>
-  <si>
-    <t>post_analysis_cell_well_quality (optional)</t>
-  </si>
-  <si>
-    <t>other_derived_cell_attributes (optional)</t>
-  </si>
-  <si>
-    <t>The name of the file that was used to generate the analysis derived data.</t>
-  </si>
-  <si>
-    <t>e.g. file1_sequencing.json</t>
-  </si>
-  <si>
-    <t>Post analysis cell type or identity declaration based on expression profile or known gene function identified by the performer.</t>
-  </si>
-  <si>
-    <t>e.g. type II bipolar neuron</t>
-  </si>
-  <si>
-    <t>Performer defined measure of whether the read output
-from the cell was included in the sequencing analysis. For example, cells might be excluded if a threshold percentage of reads did not map to the genome or if pre-sequencing quality measures were not passed.</t>
-  </si>
-  <si>
-    <t>e.g. Passed</t>
-  </si>
-  <si>
-    <t>Any other cell level measurement or annotation as result of the analysis.</t>
-  </si>
-  <si>
-    <t>e.g. cluster</t>
-  </si>
-  <si>
-    <t>reference_genome</t>
-  </si>
-  <si>
-    <t>genome_annotation</t>
-  </si>
-  <si>
-    <t>annotation_filtering</t>
-  </si>
-  <si>
-    <t>genes_vs_exons</t>
-  </si>
-  <si>
-    <t>library_structure</t>
-  </si>
-  <si>
-    <t>mapping_and_demultiplexing_software</t>
-  </si>
-  <si>
-    <t>read_mapping_statistics</t>
-  </si>
-  <si>
-    <t>sequencing_saturation</t>
-  </si>
-  <si>
-    <t>umis_barcode_distribution_qc</t>
-  </si>
-  <si>
-    <t>cell_non_cell_filtering_strategy</t>
-  </si>
-  <si>
-    <t>other_quality_filters_applied</t>
-  </si>
-  <si>
-    <t>ambient_rna_qc</t>
-  </si>
-  <si>
-    <t>predicted_doublet_rate_qc</t>
-  </si>
-  <si>
-    <t>individual_organism_snp_demultiplexing</t>
-  </si>
-  <si>
-    <t>reference_genome (optional)</t>
-  </si>
-  <si>
-    <t>genome_annotation (optional)</t>
-  </si>
-  <si>
-    <t>annotation_filtering (optional)</t>
-  </si>
-  <si>
-    <t>genes_vs_exons (optional)</t>
-  </si>
-  <si>
-    <t>library_structure (optional)</t>
-  </si>
-  <si>
-    <t>mapping_and_demultiplexing_software (optional)</t>
-  </si>
-  <si>
-    <t>read_mapping_statistics (optional)</t>
-  </si>
-  <si>
-    <t>sequencing_saturation (optional)</t>
-  </si>
-  <si>
-    <t>umis_barcode_distribution_qc (optional)</t>
-  </si>
-  <si>
-    <t>cell_non_cell_filtering_strategy (optional)</t>
-  </si>
-  <si>
-    <t>other_quality_filters_applied (optional)</t>
-  </si>
-  <si>
-    <t>ambient_rna_qc (optional)</t>
-  </si>
-  <si>
-    <t>predicted_doublet_rate_qc (optional)</t>
-  </si>
-  <si>
-    <t>individual_organism_snp_demultiplexing (optional)</t>
-  </si>
-  <si>
-    <t>Indicate version and include stable link to genome data (or attach genome fasta file).</t>
-  </si>
-  <si>
-    <t>e.g. GRCh38, https://example.org/grch38.fa</t>
-  </si>
-  <si>
-    <t>Indicate version and include stable link. Also indicate if any modification to the original annotation has been applied (e.g. 3' UTR extension) and include modified annotation file employed in the analysis.</t>
-  </si>
-  <si>
-    <t>e.g. Ensembl v101, https://example.org/ensembl_v101.gtf</t>
-  </si>
-  <si>
-    <t>Indicate which features were filtered (i.e. protein coding, pseudo-genes, TCRs, etc.)</t>
-  </si>
-  <si>
-    <t>e.g. Filtered to include only protein-coding genes</t>
-  </si>
-  <si>
-    <t>Quantification using whole gene intervals or exons.</t>
-  </si>
-  <si>
-    <t>e.g. Exon quantification</t>
-  </si>
-  <si>
-    <t>seqspec format</t>
-  </si>
-  <si>
-    <t>e.g. Single-cell 3' library</t>
-  </si>
-  <si>
-    <t>Reads/UMI</t>
-  </si>
-  <si>
-    <t>e.g. Cell Ranger 6.0.0</t>
-  </si>
-  <si>
-    <t>Statistics of the Reads or Unique Molecular Identifier (UMI).</t>
-  </si>
-  <si>
-    <t>e.g. 80% reads mapped to reference</t>
-  </si>
-  <si>
-    <t>Depending on number of cells recovered (not targeted) and technology</t>
-  </si>
-  <si>
-    <t>e.g. 95% sequencing saturation</t>
-  </si>
-  <si>
-    <t>Show Unique Molecular Identifiers (UMIs) per barcode distribution and threshold applied</t>
-  </si>
-  <si>
-    <t>e.g. Threshold: 10 UMIs per barcode</t>
-  </si>
-  <si>
-    <t>Unique Molecular Identifier (UMI) threshold used to discriminate cells from non-cells. Description of algorithm (if any) and parameters used to determine cells or non-cells.</t>
-  </si>
-  <si>
-    <t>e.g. Threshold: 5 UMIs for cell detection</t>
-  </si>
-  <si>
-    <t>Cells/nuclei discarded based on % mitochondrial reads, % rRNA reads, etc.</t>
-  </si>
-  <si>
-    <t>e.g. Cells with &gt;20% mitochondrial reads discarded</t>
-  </si>
-  <si>
-    <t>Report % UMIs in background cell barcodes, and algorithm (if any) used to remove ambient RNA</t>
-  </si>
-  <si>
-    <t>e.g. Ambient RNA removed if &gt;5% UMIs in background barcodes</t>
-  </si>
-  <si>
-    <t>e.g. Predicted doublet rate: 1.5%</t>
-  </si>
-  <si>
-    <t>If carried out, show SNP partitioning quality (e.g. SNP UMAP embedding or covariance matrix), algorithm used</t>
-  </si>
-  <si>
-    <t>e.g. SNP UMAP embedding using CellSNP</t>
-  </si>
-  <si>
-    <t>clustering_algorithm_and_version</t>
-  </si>
-  <si>
-    <t>clustering_parameters</t>
-  </si>
-  <si>
-    <t>integration_batch_correction</t>
-  </si>
-  <si>
-    <t>clustering_algorithm_and_version (optional)</t>
-  </si>
-  <si>
-    <t>clustering_parameters (optional)</t>
-  </si>
-  <si>
-    <t>integration_batch_correction (optional)</t>
-  </si>
-  <si>
-    <t>If compared/integrated with existing datasets</t>
-  </si>
-  <si>
-    <t>e.g. Louvain 0.8.0</t>
-  </si>
-  <si>
-    <t>e.g. Resolution: 0.6, K-nearest neighbors: 10</t>
-  </si>
-  <si>
-    <t>e.g. Harmony v1.0</t>
-  </si>
-  <si>
-    <t>source_code</t>
-  </si>
-  <si>
-    <t>umi_count_matrix</t>
-  </si>
-  <si>
-    <t>ensembl_ids</t>
-  </si>
-  <si>
-    <t>functional_gene_annotations</t>
-  </si>
-  <si>
-    <t>protein_models</t>
-  </si>
-  <si>
-    <t>cell_metadata</t>
-  </si>
-  <si>
-    <t>cluster_level_normalised_expression_tables</t>
-  </si>
-  <si>
-    <t>other_resource_files</t>
-  </si>
-  <si>
-    <t>source_code (optional)</t>
-  </si>
-  <si>
-    <t>umi_count_matrix (optional)</t>
-  </si>
-  <si>
-    <t>ensembl_ids (optional)</t>
-  </si>
-  <si>
-    <t>functional_gene_annotations (optional)</t>
-  </si>
-  <si>
-    <t>protein_models (optional)</t>
-  </si>
-  <si>
-    <t>cell_metadata (optional)</t>
-  </si>
-  <si>
-    <t>cluster_level_normalised_expression_tables (optional)</t>
-  </si>
-  <si>
-    <t>other_resource_files (optional)</t>
-  </si>
-  <si>
-    <t>If any newly developed code/software has been used in the processing and downstream analysis of the dataset.</t>
-  </si>
-  <si>
-    <t>e.g. Source code is hosted on GitHub and includes custom algorithms for UMI count normalization. The repository can be found at: https://github.com/user/umi-normalization.</t>
-  </si>
-  <si>
-    <t>Gene x cell matrix with UMI counts for each gene in each cell.</t>
-  </si>
-  <si>
-    <t>e.g. The UMI count matrix is stored in a CSV file with gene IDs as rows (e.g., ENSG00000139618) and cell barcodes as columns (e.g., Cell_001, Cell_002). The matrix file is available at: https://example.com/umi_count_matrix.csv.</t>
-  </si>
-  <si>
-    <t>Gene or transcript names should be listed as Ensembl (or other standardized ID), with gene short names in metadata.</t>
-  </si>
-  <si>
-    <t>e.g. The UMI count matrix includes genes identified by their Ensembl IDs, such as 'ENSG00000139618' for the BRCA1 gene. See the full list of Ensembl IDs in the metadata file.</t>
-  </si>
-  <si>
-    <t>Any functional annotation generated/used (gene names, GOs, structural domains, etc.).</t>
-  </si>
-  <si>
-    <t>e.g. Functional gene annotations, including Gene Ontology (GO) terms, are provided in the metadata. For example, the gene 'ENSG00000139618' (BRCA1) is annotated with the GO term 'GO:0003674' (DNA binding).</t>
-  </si>
-  <si>
-    <t>FASTA file with (or stable link to) the predicted proteins associated to genes in the UMI count matrix and matching IDs.</t>
-  </si>
-  <si>
-    <t>e.g. The protein sequences for genes are provided in a FASTA file available at: https://example.com/protein_models.fasta, where each protein sequence is linked to the corresponding gene ID.</t>
-  </si>
-  <si>
-    <t>Table mapping cell IDs to cluster/cell type/broad cell type annotations.</t>
-  </si>
-  <si>
-    <t>e.g. Cell metadata includes information such as cell type annotations ('Tumor', 'Normal') and experimental conditions ('Control', 'Treatment'). This data is available in a table at: https://example.com/cell_metadata.csv.</t>
-  </si>
-  <si>
-    <t>Expression tables that show normalised gene expression at the cluster or cell-type level.</t>
-  </si>
-  <si>
-    <t>e.g. Normalised gene expression data at the cluster level is provided in a tab-delimited text file. For example, gene 'ENSG00000139618' (BRCA1) has expression values for clusters: Cluster_1: 1200, Cluster_2: 900. The full expression table is available at: https://example.com/cluster_level_expression.csv.</t>
-  </si>
-  <si>
-    <t>Necessary to re-use and interpret the data. E.g. barcode information in complex, serial multiplexing protocols (clicktags).</t>
-  </si>
-  <si>
-    <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
   </si>
 </sst>
 </file>
@@ -2691,8 +2733,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="166.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2739,198 +2781,12 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A393" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9763" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>623</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>626</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>630</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>634</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>625</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>631</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>639</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="D67A" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A4:N4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="A1:N4">
-    <cfRule type="notContainsErrors" dxfId="0" priority="1">
-      <formula>NOT(ISERROR(A1))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2950,16 +2806,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>648</v>
+        <v>627</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>649</v>
+        <v>628</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>650</v>
+        <v>629</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2967,16 +2823,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>652</v>
+        <v>631</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>654</v>
+        <v>633</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>656</v>
+        <v>635</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2984,16 +2840,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>653</v>
+        <v>632</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>655</v>
+        <v>634</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3006,7 +2862,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCDA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D6EB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3027,7 +2883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -3057,46 +2913,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>678</v>
+        <v>657</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>679</v>
+        <v>658</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>681</v>
+        <v>660</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>682</v>
+        <v>661</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>683</v>
+        <v>662</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>684</v>
+        <v>663</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>685</v>
+        <v>664</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>686</v>
+        <v>665</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -3104,46 +2960,46 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>690</v>
+        <v>669</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>700</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>708</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>702</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3151,46 +3007,46 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>689</v>
+        <v>668</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>693</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>701</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3213,7 +3069,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C897" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC01" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3226,7 +3082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -3243,13 +3099,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3257,13 +3113,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3271,13 +3127,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3289,7 +3145,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9F53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C9F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3302,7 +3158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -3312,7 +3168,7 @@
   <cols>
     <col min="1" max="1" width="154.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="198.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="152.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="187.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="170.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="191.7109375" style="4" bestFit="1" customWidth="1"/>
@@ -3322,80 +3178,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3411,11 +3267,197 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3DA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCB6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:H4">
+    <cfRule type="notContainsErrors" dxfId="0" priority="1">
+      <formula>NOT(ISERROR(A1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>763</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+  </sheetData>
+  <sheetProtection password="B521" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:N4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:N4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3500,7 +3542,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8152" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AEFD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3534,1487 +3576,1487 @@
   <sheetData>
     <row r="5" spans="9:9">
       <c r="I5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="9:9">
       <c r="I6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="9:9">
       <c r="I7" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="9:9">
       <c r="I8" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="9:9">
       <c r="I9" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="9:9">
       <c r="I10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="9:9">
       <c r="I11" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="9:9">
       <c r="I13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="9:9">
       <c r="I14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="9:9">
       <c r="I15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="9:9">
       <c r="I16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="9:9">
       <c r="I17" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="9:9">
       <c r="I19" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="9:9">
       <c r="I20" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="9:9">
       <c r="I21" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="9:9">
       <c r="I22" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="9:9">
       <c r="I23" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="9:9">
       <c r="I24" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="9:9">
       <c r="I25" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="9:9">
       <c r="I27" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="9:9">
       <c r="I28" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="9:9">
       <c r="I30" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="9:9">
       <c r="I31" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="9:9">
       <c r="I32" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="9:9">
       <c r="I33" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="34" spans="9:9">
       <c r="I34" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="9:9">
       <c r="I35" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="9:9">
       <c r="I37" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="9:9">
       <c r="I38" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="9:9">
       <c r="I39" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="9:9">
       <c r="I40" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="41" spans="9:9">
       <c r="I41" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="9:9">
       <c r="I42" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="9:9">
       <c r="I43" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="9:9">
       <c r="I44" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="9:9">
       <c r="I45" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="9:9">
       <c r="I46" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="9:9">
       <c r="I47" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="9:9">
       <c r="I48" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="9:9">
       <c r="I49" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="9:9">
       <c r="I50" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" spans="9:9">
       <c r="I51" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="9:9">
       <c r="I52" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="9:9">
       <c r="I53" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="54" spans="9:9">
       <c r="I54" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="9:9">
       <c r="I55" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="9:9">
       <c r="I56" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="9:9">
       <c r="I57" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="9:9">
       <c r="I59" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="9:9">
       <c r="I60" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="9:9">
       <c r="I61" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="9:9">
       <c r="I62" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
     <row r="63" spans="9:9">
       <c r="I63" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="9:9">
       <c r="I64" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="9:9">
       <c r="I65" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
     <row r="66" spans="9:9">
       <c r="I66" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="9:9">
       <c r="I67" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="9:9">
       <c r="I68" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="9:9">
       <c r="I69" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="9:9">
       <c r="I70" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="9:9">
       <c r="I71" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="9:9">
       <c r="I72" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="73" spans="9:9">
       <c r="I73" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="9:9">
       <c r="I74" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="9:9">
       <c r="I76" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77" spans="9:9">
       <c r="I77" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="78" spans="9:9">
       <c r="I78" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="79" spans="9:9">
       <c r="I79" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="80" spans="9:9">
       <c r="I80" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="81" spans="9:9">
       <c r="I81" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" spans="9:9">
       <c r="I82" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="9:9">
       <c r="I83" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84" spans="9:9">
       <c r="I84" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="9:9">
       <c r="I85" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="86" spans="9:9">
       <c r="I86" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="9:9">
       <c r="I87" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="88" spans="9:9">
       <c r="I88" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="9:9">
       <c r="I89" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="90" spans="9:9">
       <c r="I90" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="9:9">
       <c r="I91" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="9:9">
       <c r="I92" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="9:9">
       <c r="I93" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="9:9">
       <c r="I94" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="9:9">
       <c r="I95" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="9:9">
       <c r="I96" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="9:9">
       <c r="I97" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="9:9">
       <c r="I98" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="9:9">
       <c r="I99" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="9:9">
       <c r="I100" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="9:9">
       <c r="I101" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="102" spans="9:9">
       <c r="I102" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="9:9">
       <c r="I103" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="9:9">
       <c r="I104" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="105" spans="9:9">
       <c r="I105" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="106" spans="9:9">
       <c r="I106" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="9:9">
       <c r="I107" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="108" spans="9:9">
       <c r="I108" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="109" spans="9:9">
       <c r="I109" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="110" spans="9:9">
       <c r="I110" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="9:9">
       <c r="I111" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="112" spans="9:9">
       <c r="I112" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="113" spans="9:9">
       <c r="I113" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="114" spans="9:9">
       <c r="I114" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115" spans="9:9">
       <c r="I115" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="116" spans="9:9">
       <c r="I116" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="9:9">
       <c r="I117" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="9:9">
       <c r="I118" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="119" spans="9:9">
       <c r="I119" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="120" spans="9:9">
       <c r="I120" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="9:9">
       <c r="I121" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122" spans="9:9">
       <c r="I122" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="123" spans="9:9">
       <c r="I123" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="124" spans="9:9">
       <c r="I124" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="9:9">
       <c r="I125" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="126" spans="9:9">
       <c r="I126" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="127" spans="9:9">
       <c r="I127" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="128" spans="9:9">
       <c r="I128" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="129" spans="9:9">
       <c r="I129" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="9:9">
       <c r="I130" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="131" spans="9:9">
       <c r="I131" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="132" spans="9:9">
       <c r="I132" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="133" spans="9:9">
       <c r="I133" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="134" spans="9:9">
       <c r="I134" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="135" spans="9:9">
       <c r="I135" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="136" spans="9:9">
       <c r="I136" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="137" spans="9:9">
       <c r="I137" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="138" spans="9:9">
       <c r="I138" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="139" spans="9:9">
       <c r="I139" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="140" spans="9:9">
       <c r="I140" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="141" spans="9:9">
       <c r="I141" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="142" spans="9:9">
       <c r="I142" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="143" spans="9:9">
       <c r="I143" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="144" spans="9:9">
       <c r="I144" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="9:9">
       <c r="I145" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146" spans="9:9">
       <c r="I146" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="147" spans="9:9">
       <c r="I147" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="9:9">
       <c r="I148" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="149" spans="9:9">
       <c r="I149" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
     </row>
     <row r="150" spans="9:9">
       <c r="I150" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="151" spans="9:9">
       <c r="I151" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
     </row>
     <row r="152" spans="9:9">
       <c r="I152" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="153" spans="9:9">
       <c r="I153" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="154" spans="9:9">
       <c r="I154" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="155" spans="9:9">
       <c r="I155" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="156" spans="9:9">
       <c r="I156" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="157" spans="9:9">
       <c r="I157" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="158" spans="9:9">
       <c r="I158" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="159" spans="9:9">
       <c r="I159" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="160" spans="9:9">
       <c r="I160" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="161" spans="9:9">
       <c r="I161" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="162" spans="9:9">
       <c r="I162" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="163" spans="9:9">
       <c r="I163" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="164" spans="9:9">
       <c r="I164" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="165" spans="9:9">
       <c r="I165" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
     </row>
     <row r="166" spans="9:9">
       <c r="I166" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="9:9">
       <c r="I167" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="168" spans="9:9">
       <c r="I168" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="169" spans="9:9">
       <c r="I169" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
     <row r="170" spans="9:9">
       <c r="I170" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="171" spans="9:9">
       <c r="I171" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="9:9">
       <c r="I172" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="9:9">
       <c r="I173" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
     </row>
     <row r="174" spans="9:9">
       <c r="I174" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="9:9">
       <c r="I175" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" spans="9:9">
       <c r="I176" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="177" spans="9:9">
       <c r="I177" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="9:9">
       <c r="I178" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="9:9">
       <c r="I179" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="9:9">
       <c r="I180" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="9:9">
       <c r="I181" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
     </row>
     <row r="182" spans="9:9">
       <c r="I182" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
     </row>
     <row r="183" spans="9:9">
       <c r="I183" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="9:9">
       <c r="I184" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
     </row>
     <row r="185" spans="9:9">
       <c r="I185" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="9:9">
       <c r="I186" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="9:9">
       <c r="I187" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="9:9">
       <c r="I188" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="9:9">
       <c r="I189" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="9:9">
       <c r="I190" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="9:9">
       <c r="I191" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192" spans="9:9">
       <c r="I192" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="193" spans="9:9">
       <c r="I193" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
     </row>
     <row r="194" spans="9:9">
       <c r="I194" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="195" spans="9:9">
       <c r="I195" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="196" spans="9:9">
       <c r="I196" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="197" spans="9:9">
       <c r="I197" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="198" spans="9:9">
       <c r="I198" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
     </row>
     <row r="199" spans="9:9">
       <c r="I199" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="200" spans="9:9">
       <c r="I200" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="201" spans="9:9">
       <c r="I201" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="202" spans="9:9">
       <c r="I202" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="203" spans="9:9">
       <c r="I203" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="204" spans="9:9">
       <c r="I204" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="205" spans="9:9">
       <c r="I205" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
     </row>
     <row r="206" spans="9:9">
       <c r="I206" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="207" spans="9:9">
       <c r="I207" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="208" spans="9:9">
       <c r="I208" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="209" spans="9:9">
       <c r="I209" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="210" spans="9:9">
       <c r="I210" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="211" spans="9:9">
       <c r="I211" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="212" spans="9:9">
       <c r="I212" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="213" spans="9:9">
       <c r="I213" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="9:9">
       <c r="I214" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="215" spans="9:9">
       <c r="I215" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="216" spans="9:9">
       <c r="I216" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="217" spans="9:9">
       <c r="I217" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="218" spans="9:9">
       <c r="I218" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="219" spans="9:9">
       <c r="I219" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
     </row>
     <row r="220" spans="9:9">
       <c r="I220" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
     </row>
     <row r="221" spans="9:9">
       <c r="I221" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="222" spans="9:9">
       <c r="I222" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
     </row>
     <row r="223" spans="9:9">
       <c r="I223" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="9:9">
       <c r="I224" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="225" spans="9:9">
       <c r="I225" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="226" spans="9:9">
       <c r="I226" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
     </row>
     <row r="227" spans="9:9">
       <c r="I227" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" spans="9:9">
       <c r="I228" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="229" spans="9:9">
       <c r="I229" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
     </row>
     <row r="230" spans="9:9">
       <c r="I230" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="231" spans="9:9">
       <c r="I231" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="232" spans="9:9">
       <c r="I232" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="233" spans="9:9">
       <c r="I233" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
     </row>
     <row r="234" spans="9:9">
       <c r="I234" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
     </row>
     <row r="235" spans="9:9">
       <c r="I235" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
     </row>
     <row r="236" spans="9:9">
       <c r="I236" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="237" spans="9:9">
       <c r="I237" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
     </row>
     <row r="238" spans="9:9">
       <c r="I238" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
     </row>
     <row r="239" spans="9:9">
       <c r="I239" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="240" spans="9:9">
       <c r="I240" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="241" spans="9:9">
       <c r="I241" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="242" spans="9:9">
       <c r="I242" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
     </row>
     <row r="243" spans="9:9">
       <c r="I243" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
     </row>
     <row r="244" spans="9:9">
       <c r="I244" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="245" spans="9:9">
       <c r="I245" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
     </row>
     <row r="246" spans="9:9">
       <c r="I246" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="247" spans="9:9">
       <c r="I247" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="248" spans="9:9">
       <c r="I248" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="249" spans="9:9">
       <c r="I249" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="250" spans="9:9">
       <c r="I250" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
     </row>
     <row r="251" spans="9:9">
       <c r="I251" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
     </row>
     <row r="252" spans="9:9">
       <c r="I252" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="253" spans="9:9">
       <c r="I253" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="254" spans="9:9">
       <c r="I254" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
     </row>
     <row r="255" spans="9:9">
       <c r="I255" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="256" spans="9:9">
       <c r="I256" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="257" spans="9:9">
       <c r="I257" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="258" spans="9:9">
       <c r="I258" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
     </row>
     <row r="259" spans="9:9">
       <c r="I259" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="260" spans="9:9">
       <c r="I260" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
     </row>
     <row r="261" spans="9:9">
       <c r="I261" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="262" spans="9:9">
       <c r="I262" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
     </row>
     <row r="263" spans="9:9">
       <c r="I263" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="264" spans="9:9">
       <c r="I264" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
     </row>
     <row r="265" spans="9:9">
       <c r="I265" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
     </row>
     <row r="266" spans="9:9">
       <c r="I266" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="267" spans="9:9">
       <c r="I267" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
     </row>
     <row r="268" spans="9:9">
       <c r="I268" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="269" spans="9:9">
       <c r="I269" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="270" spans="9:9">
       <c r="I270" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
     </row>
     <row r="271" spans="9:9">
       <c r="I271" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="272" spans="9:9">
       <c r="I272" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
     </row>
     <row r="273" spans="9:9">
       <c r="I273" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
     </row>
     <row r="274" spans="9:9">
       <c r="I274" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="275" spans="9:9">
       <c r="I275" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="276" spans="9:9">
       <c r="I276" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="277" spans="9:9">
       <c r="I277" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="278" spans="9:9">
       <c r="I278" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="279" spans="9:9">
       <c r="I279" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="280" spans="9:9">
       <c r="I280" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="281" spans="9:9">
       <c r="I281" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="282" spans="9:9">
       <c r="I282" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
     </row>
     <row r="283" spans="9:9">
       <c r="I283" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
     </row>
     <row r="284" spans="9:9">
       <c r="I284" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="285" spans="9:9">
       <c r="I285" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="286" spans="9:9">
       <c r="I286" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="287" spans="9:9">
       <c r="I287" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="288" spans="9:9">
       <c r="I288" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="289" spans="9:9">
       <c r="I289" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="290" spans="9:9">
       <c r="I290" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="291" spans="9:9">
       <c r="I291" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
     </row>
     <row r="292" spans="9:9">
       <c r="I292" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="293" spans="9:9">
       <c r="I293" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="294" spans="9:9">
       <c r="I294" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="295" spans="9:9">
       <c r="I295" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="296" spans="9:9">
       <c r="I296" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
     </row>
     <row r="297" spans="9:9">
       <c r="I297" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
     </row>
     <row r="298" spans="9:9">
       <c r="I298" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
     </row>
     <row r="299" spans="9:9">
       <c r="I299" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="300" spans="9:9">
       <c r="I300" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
     </row>
     <row r="301" spans="9:9">
       <c r="I301" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5024,71 +5066,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -5096,13 +5168,16 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C93" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8D53" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -5130,7 +5205,7 @@
     <col min="10" max="10" width="237.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="57.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="66.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="110.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="46.140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5139,87 +5214,87 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5227,43 +5302,43 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5285,7 +5360,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA5B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9455" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5321,7 +5396,7 @@
     <col min="5" max="5" width="40.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="110.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="63.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="60.5703125" style="4" bestFit="1" customWidth="1"/>
@@ -5335,43 +5410,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -5379,43 +5454,43 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5423,43 +5498,43 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>85</v>
+        <v>425</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>85</v>
+        <v>433</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>85</v>
+        <v>435</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>85</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5481,7 +5556,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B4EC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F553" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5533,52 +5608,52 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>446</v>
+        <v>459</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>447</v>
+        <v>460</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -5586,52 +5661,52 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>450</v>
+        <v>463</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5639,52 +5714,52 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>449</v>
+        <v>462</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>85</v>
+        <v>468</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5709,7 +5784,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DEC4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CEB3" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5773,85 +5848,85 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>474</v>
+        <v>488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="W1" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -5859,85 +5934,85 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>519</v>
+        <v>533</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>521</v>
+        <v>535</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>565</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -5945,85 +6020,85 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>451</v>
+        <v>464</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>520</v>
+        <v>534</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>552</v>
+        <v>566</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>556</v>
+        <v>570</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>558</v>
+        <v>572</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>564</v>
+        <v>578</v>
       </c>
       <c r="AB3" s="5" t="s">
-        <v>85</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -6059,7 +6134,7 @@
       <c r="AB4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A6FE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4BE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AB4"/>
   </mergeCells>
@@ -6123,43 +6198,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>566</v>
+        <v>580</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>568</v>
+        <v>582</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>584</v>
+        <v>598</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>576</v>
+        <v>590</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>585</v>
+        <v>599</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6167,43 +6242,43 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6211,43 +6286,43 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>594</v>
+        <v>608</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6269,7 +6344,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DCE7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C727" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -2781,7 +2781,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9763" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1C2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2862,7 +2862,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D6EB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B036" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3069,7 +3069,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DC01" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F515" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3145,7 +3145,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9C9F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B9FA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3267,7 +3267,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCB6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B71E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3453,7 +3453,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B521" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FAD5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3542,7 +3542,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AEFD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="919C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5173,7 +5173,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8D53" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F09F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5360,7 +5360,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9455" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F6B0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5556,7 +5556,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F553" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EF26" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5784,7 +5784,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEB3" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF90" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6134,7 +6134,7 @@
       <c r="AB4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4BE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FDB7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AB4"/>
   </mergeCells>
@@ -6344,7 +6344,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C727" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA0D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -2781,7 +2781,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="A1C2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA9E" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2862,7 +2862,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B036" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9811" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3069,7 +3069,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F515" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E3B8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3145,7 +3145,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B9FA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EA80" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3267,7 +3267,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B71E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E120" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3453,7 +3453,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FAD5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B495" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3542,7 +3542,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="919C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C19" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5173,7 +5173,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F09F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E0D0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5360,7 +5360,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F6B0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E2DF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5556,7 +5556,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EF26" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AA80" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5784,7 +5784,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF90" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA9A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6134,7 +6134,7 @@
       <c r="AB4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FDB7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B997" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AB4"/>
   </mergeCells>
@@ -6344,7 +6344,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA0D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FCCC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -53,7 +53,7 @@
     <t>Single-cell Ribonucleic Acid Sequencing (scRNA-Seq) [Functional Annotation of Animal Genomes (FAANG)]</t>
   </si>
   <si>
-    <t>Ribonucleic Acid (RNA) sequencing of individual cells for functional annotation of animal genomes (FAANG) with the aim to improve understanding of animal genomics and gene functions.</t>
+    <t>For single cell RNA-seq studies using  FAANG metadata  with the aim to improve understanding of animal genomics and gene functions.</t>
   </si>
   <si>
     <t>faang</t>
@@ -2734,7 +2734,7 @@
   <cols>
     <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="95" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="166.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2781,7 +2781,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CA9E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CFA5" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2862,7 +2862,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9811" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="94F5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3069,7 +3069,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E3B8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AF4D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3145,7 +3145,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EA80" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E46E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3267,7 +3267,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E120" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E7AA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3453,7 +3453,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B495" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EE6C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3542,7 +3542,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8C19" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D108" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5173,7 +5173,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E0D0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5360,7 +5360,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E2DF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A058" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5556,7 +5556,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AA80" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F9CA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5567,7 +5567,7 @@
   </conditionalFormatting>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>"10X Nuclei Isolation Kit,3' Standard Throughput Kit"</formula1>
+      <formula1>"10X Nuclei Isolation Kit,3' Standard Throughput Kit,Custom"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="M5:M1005">
       <formula1>"Fine Needle Trituration,Fluids,Mechanical Dissociation,Mesh Passage,Proteolysis"</formula1>
@@ -5784,7 +5784,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA9A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CBE0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6134,7 +6134,7 @@
       <c r="AB4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B997" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8837" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AB4"/>
   </mergeCells>
@@ -6344,7 +6344,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FCCC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="872B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -2781,7 +2781,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CFA5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BC7D" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2862,7 +2862,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="94F5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE81" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3069,7 +3069,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AF4D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C3EA" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3145,7 +3145,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E46E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C3DB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3267,7 +3267,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E7AA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4C9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3453,7 +3453,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EE6C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A732" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -3542,7 +3542,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D108" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8670" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5173,7 +5173,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C97D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F1B4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5360,7 +5360,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A058" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DFE6" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5556,7 +5556,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F9CA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F7A8" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5784,7 +5784,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBE0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA60" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6134,7 +6134,7 @@
       <c r="AB4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8837" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CBC4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AB4"/>
   </mergeCells>
@@ -6344,7 +6344,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="872B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BCE9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="864">
   <si>
     <t>key</t>
   </si>
@@ -1460,13 +1460,13 @@
     <t>e.g. 10</t>
   </si>
   <si>
-    <t>The volume of the cell suspension in microlitres.</t>
+    <t>The volume of the cell suspension in microlitres (µL).</t>
   </si>
   <si>
     <t>e.g. 100</t>
   </si>
   <si>
-    <t>The concentration of cells in the suspension.</t>
+    <t>The concentration of cells in the suspension in microlitres (µL).</t>
   </si>
   <si>
     <t>e.g. 1000</t>
@@ -1565,6 +1565,9 @@
     <t>pool_creation_protocol</t>
   </si>
   <si>
+    <t>design_description</t>
+  </si>
+  <si>
     <t>amplification_method (optional)</t>
   </si>
   <si>
@@ -1613,6 +1616,9 @@
     <t>cell_phenotype (optional)</t>
   </si>
   <si>
+    <t>design_description (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
@@ -1769,6 +1775,9 @@
     <t>A link to the protocol for pool of specimens creation.</t>
   </si>
   <si>
+    <t>The design of the library including details of how it was constructed.</t>
+  </si>
+  <si>
     <t>sequencing_id</t>
   </si>
   <si>
@@ -1896,6 +1905,255 @@
   </si>
   <si>
     <t>e.g. 75</t>
+  </si>
+  <si>
+    <t>454 Gs</t>
+  </si>
+  <si>
+    <t>454 Gs 20</t>
+  </si>
+  <si>
+    <t>454 Gs Flx</t>
+  </si>
+  <si>
+    <t>454 Gs Flx Titanium</t>
+  </si>
+  <si>
+    <t>454 Gs Flx+</t>
+  </si>
+  <si>
+    <t>454 Gs Junior</t>
+  </si>
+  <si>
+    <t>Ab 310 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl-W Genetic Analysis System</t>
+  </si>
+  <si>
+    <t>Ab Solid 3 Plus System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4 System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4Hq System</t>
+  </si>
+  <si>
+    <t>Ab Solid Pi System</t>
+  </si>
+  <si>
+    <t>Ab Solid System</t>
+  </si>
+  <si>
+    <t>Ab Solid System 2.0</t>
+  </si>
+  <si>
+    <t>Ab Solid System 3.0</t>
+  </si>
+  <si>
+    <t>Bgiseq-50</t>
+  </si>
+  <si>
+    <t>Bgiseq-500</t>
+  </si>
+  <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400 Fast</t>
+  </si>
+  <si>
+    <t>Dnbseq-G50</t>
+  </si>
+  <si>
+    <t>Dnbseq-T10X4Rs</t>
+  </si>
+  <si>
+    <t>Dnbseq-T7</t>
+  </si>
+  <si>
+    <t>Element Aviti</t>
+  </si>
+  <si>
+    <t>Fastaseq 300</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Genocare 1600</t>
+  </si>
+  <si>
+    <t>Genolab M</t>
+  </si>
+  <si>
+    <t>Gridion</t>
+  </si>
+  <si>
+    <t>Gs111</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Ii</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Iix</t>
+  </si>
+  <si>
+    <t>Illumina Hiscansq</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 3000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 4000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Five</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Ten</t>
+  </si>
+  <si>
+    <t>Illumina Iseq 100</t>
+  </si>
+  <si>
+    <t>Illumina Miniseq</t>
+  </si>
+  <si>
+    <t>Illumina Miseq</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 500</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 550</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq 6000</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Prime</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Ion Torrent Pgm</t>
+  </si>
+  <si>
+    <t>Ion Torrent Proton</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 Xl</t>
+  </si>
+  <si>
+    <t>Mgiseq-2000Rs</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>Nextseq 1000</t>
+  </si>
+  <si>
+    <t>Nextseq 2000</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Pacbio Rs</t>
+  </si>
+  <si>
+    <t>Pacbio Rs Ii</t>
+  </si>
+  <si>
+    <t>Promethion</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Sentosa Sq301</t>
+  </si>
+  <si>
+    <t>Sequel</t>
+  </si>
+  <si>
+    <t>Sequel Ii</t>
+  </si>
+  <si>
+    <t>Sequel Iie</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Ug 100</t>
   </si>
   <si>
     <t>file_derived_from</t>
@@ -2256,10 +2514,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_checksum</t>
-  </si>
-  <si>
-    <t>index_checksum</t>
+    <t>read_1_checksum</t>
+  </si>
+  <si>
+    <t>read_2_checksum</t>
+  </si>
+  <si>
+    <t>index_1_checksum</t>
+  </si>
+  <si>
+    <t>index_2_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -2274,6 +2538,18 @@
     <t>expression_data_file</t>
   </si>
   <si>
+    <t>read_2_file (optional)</t>
+  </si>
+  <si>
+    <t>index_1_file (optional)</t>
+  </si>
+  <si>
+    <t>read_2_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_checksum (optional)</t>
+  </si>
+  <si>
     <t>white_list_barcode_file (optional)</t>
   </si>
   <si>
@@ -2307,16 +2583,19 @@
     <t>e.g. file2_i2.fastq.gz</t>
   </si>
   <si>
-    <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
-  </si>
-  <si>
-    <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+    <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -2781,7 +3060,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BC7D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC77" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2806,16 +3085,16 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>627</v>
+        <v>713</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>628</v>
+        <v>714</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>629</v>
+        <v>715</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>630</v>
+        <v>716</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2823,16 +3102,16 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>631</v>
+        <v>717</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>633</v>
+        <v>719</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>635</v>
+        <v>721</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>637</v>
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2840,16 +3119,16 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>632</v>
+        <v>718</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>636</v>
+        <v>722</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>638</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2862,7 +3141,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE81" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A48E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -2913,46 +3192,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>653</v>
+        <v>739</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>654</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>655</v>
+        <v>741</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>656</v>
+        <v>742</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>657</v>
+        <v>743</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>658</v>
+        <v>744</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>659</v>
+        <v>745</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>660</v>
+        <v>746</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>661</v>
+        <v>747</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>662</v>
+        <v>748</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>663</v>
+        <v>749</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>664</v>
+        <v>750</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>665</v>
+        <v>751</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>666</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -2960,46 +3239,46 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>667</v>
+        <v>753</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>673</v>
+        <v>759</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>675</v>
+        <v>761</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>677</v>
+        <v>763</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>679</v>
+        <v>765</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>683</v>
+        <v>769</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>685</v>
+        <v>771</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>687</v>
+        <v>773</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>681</v>
+        <v>767</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>692</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3007,46 +3286,46 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>674</v>
+        <v>760</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>676</v>
+        <v>762</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>678</v>
+        <v>764</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>680</v>
+        <v>766</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>682</v>
+        <v>768</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>684</v>
+        <v>770</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>686</v>
+        <v>772</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>691</v>
+        <v>777</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3069,7 +3348,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C3EA" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE85" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3099,13 +3378,13 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>697</v>
+        <v>783</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>698</v>
+        <v>784</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>699</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3113,13 +3392,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>700</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3127,13 +3406,13 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>701</v>
+        <v>787</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>702</v>
+        <v>788</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>703</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3145,7 +3424,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C3DB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E460" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3178,80 +3457,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>712</v>
+        <v>798</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>713</v>
+        <v>799</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>714</v>
+        <v>800</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>716</v>
+        <v>802</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>717</v>
+        <v>803</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>718</v>
+        <v>804</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>719</v>
+        <v>805</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>720</v>
+        <v>806</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>722</v>
+        <v>808</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>724</v>
+        <v>810</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>726</v>
+        <v>812</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>728</v>
+        <v>814</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>730</v>
+        <v>816</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>732</v>
+        <v>818</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>734</v>
+        <v>820</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>721</v>
+        <v>807</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>723</v>
+        <v>809</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>725</v>
+        <v>811</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>727</v>
+        <v>813</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>729</v>
+        <v>815</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>731</v>
+        <v>817</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>733</v>
+        <v>819</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>735</v>
+        <v>821</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3267,7 +3546,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4C9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B757" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3282,7 +3561,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3294,147 +3573,165 @@
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="126.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>736</v>
+        <v>822</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>737</v>
+        <v>823</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>740</v>
+        <v>824</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>837</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>741</v>
+        <v>827</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>828</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>753</v>
+        <v>845</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>755</v>
+        <v>847</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>757</v>
+        <v>849</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>759</v>
+        <v>851</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>761</v>
+        <v>853</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>763</v>
+        <v>854</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>765</v>
+        <v>855</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>767</v>
+        <v>856</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>858</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>754</v>
+        <v>846</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>756</v>
+        <v>848</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>758</v>
+        <v>850</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>760</v>
+        <v>852</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>762</v>
+        <v>852</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>764</v>
+        <v>852</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>766</v>
+        <v>852</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>768</v>
+        <v>857</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>859</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -3451,13 +3748,15 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A732" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E65B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A4:P4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:N4">
+  <conditionalFormatting sqref="A1:P4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -3542,7 +3841,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8670" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A1CD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3565,471 +3864,721 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I5:I301"/>
+  <dimension ref="D5:I301"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="9:9">
+    <row r="5" spans="4:9">
+      <c r="D5" t="s">
+        <v>626</v>
+      </c>
       <c r="I5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="9:9">
+    <row r="6" spans="4:9">
+      <c r="D6" t="s">
+        <v>627</v>
+      </c>
       <c r="I6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="9:9">
+    <row r="7" spans="4:9">
+      <c r="D7" t="s">
+        <v>628</v>
+      </c>
       <c r="I7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="9:9">
+    <row r="8" spans="4:9">
+      <c r="D8" t="s">
+        <v>629</v>
+      </c>
       <c r="I8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="9:9">
+    <row r="9" spans="4:9">
+      <c r="D9" t="s">
+        <v>630</v>
+      </c>
       <c r="I9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="9:9">
+    <row r="10" spans="4:9">
+      <c r="D10" t="s">
+        <v>631</v>
+      </c>
       <c r="I10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="9:9">
+    <row r="11" spans="4:9">
+      <c r="D11" t="s">
+        <v>632</v>
+      </c>
       <c r="I11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="9:9">
+    <row r="12" spans="4:9">
+      <c r="D12" t="s">
+        <v>633</v>
+      </c>
       <c r="I12" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="9:9">
+    <row r="13" spans="4:9">
+      <c r="D13" t="s">
+        <v>634</v>
+      </c>
       <c r="I13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="9:9">
+    <row r="14" spans="4:9">
+      <c r="D14" t="s">
+        <v>635</v>
+      </c>
       <c r="I14" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="15" spans="9:9">
+    <row r="15" spans="4:9">
+      <c r="D15" t="s">
+        <v>636</v>
+      </c>
       <c r="I15" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="9:9">
+    <row r="16" spans="4:9">
+      <c r="D16" t="s">
+        <v>637</v>
+      </c>
       <c r="I16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="9:9">
+    <row r="17" spans="4:9">
+      <c r="D17" t="s">
+        <v>638</v>
+      </c>
       <c r="I17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
+    <row r="18" spans="4:9">
+      <c r="D18" t="s">
+        <v>639</v>
+      </c>
       <c r="I18" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="9:9">
+    <row r="19" spans="4:9">
+      <c r="D19" t="s">
+        <v>640</v>
+      </c>
       <c r="I19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="20" spans="9:9">
+    <row r="20" spans="4:9">
+      <c r="D20" t="s">
+        <v>641</v>
+      </c>
       <c r="I20" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="9:9">
+    <row r="21" spans="4:9">
+      <c r="D21" t="s">
+        <v>642</v>
+      </c>
       <c r="I21" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="9:9">
+    <row r="22" spans="4:9">
+      <c r="D22" t="s">
+        <v>643</v>
+      </c>
       <c r="I22" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="9:9">
+    <row r="23" spans="4:9">
+      <c r="D23" t="s">
+        <v>644</v>
+      </c>
       <c r="I23" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="9:9">
+    <row r="24" spans="4:9">
+      <c r="D24" t="s">
+        <v>645</v>
+      </c>
       <c r="I24" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="4:9">
+      <c r="D25" t="s">
+        <v>646</v>
+      </c>
       <c r="I25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="9:9">
+    <row r="26" spans="4:9">
+      <c r="D26" t="s">
+        <v>647</v>
+      </c>
       <c r="I26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="9:9">
+    <row r="27" spans="4:9">
+      <c r="D27" t="s">
+        <v>648</v>
+      </c>
       <c r="I27" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="28" spans="9:9">
+    <row r="28" spans="4:9">
+      <c r="D28" t="s">
+        <v>649</v>
+      </c>
       <c r="I28" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="9:9">
+    <row r="29" spans="4:9">
+      <c r="D29" t="s">
+        <v>650</v>
+      </c>
       <c r="I29" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="30" spans="9:9">
+    <row r="30" spans="4:9">
+      <c r="D30" t="s">
+        <v>651</v>
+      </c>
       <c r="I30" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="9:9">
+    <row r="31" spans="4:9">
+      <c r="D31" t="s">
+        <v>652</v>
+      </c>
       <c r="I31" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="9:9">
+    <row r="32" spans="4:9">
+      <c r="D32" t="s">
+        <v>653</v>
+      </c>
       <c r="I32" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="9:9">
+    <row r="33" spans="4:9">
+      <c r="D33" t="s">
+        <v>654</v>
+      </c>
       <c r="I33" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="9:9">
+    <row r="34" spans="4:9">
+      <c r="D34" t="s">
+        <v>655</v>
+      </c>
       <c r="I34" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="9:9">
+    <row r="35" spans="4:9">
+      <c r="D35" t="s">
+        <v>656</v>
+      </c>
       <c r="I35" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="36" spans="9:9">
+    <row r="36" spans="4:9">
+      <c r="D36" t="s">
+        <v>657</v>
+      </c>
       <c r="I36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="9:9">
+    <row r="37" spans="4:9">
+      <c r="D37" t="s">
+        <v>658</v>
+      </c>
       <c r="I37" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="9:9">
+    <row r="38" spans="4:9">
+      <c r="D38" t="s">
+        <v>659</v>
+      </c>
       <c r="I38" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="9:9">
+    <row r="39" spans="4:9">
+      <c r="D39" t="s">
+        <v>660</v>
+      </c>
       <c r="I39" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="9:9">
+    <row r="40" spans="4:9">
+      <c r="D40" t="s">
+        <v>661</v>
+      </c>
       <c r="I40" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="9:9">
+    <row r="41" spans="4:9">
+      <c r="D41" t="s">
+        <v>662</v>
+      </c>
       <c r="I41" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="9:9">
+    <row r="42" spans="4:9">
+      <c r="D42" t="s">
+        <v>663</v>
+      </c>
       <c r="I42" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="43" spans="9:9">
+    <row r="43" spans="4:9">
+      <c r="D43" t="s">
+        <v>664</v>
+      </c>
       <c r="I43" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" spans="9:9">
+    <row r="44" spans="4:9">
+      <c r="D44" t="s">
+        <v>665</v>
+      </c>
       <c r="I44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="9:9">
+    <row r="45" spans="4:9">
+      <c r="D45" t="s">
+        <v>666</v>
+      </c>
       <c r="I45" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="9:9">
+    <row r="46" spans="4:9">
+      <c r="D46" t="s">
+        <v>667</v>
+      </c>
       <c r="I46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="47" spans="9:9">
+    <row r="47" spans="4:9">
+      <c r="D47" t="s">
+        <v>668</v>
+      </c>
       <c r="I47" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="9:9">
+    <row r="48" spans="4:9">
+      <c r="D48" t="s">
+        <v>669</v>
+      </c>
       <c r="I48" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="9:9">
+    <row r="49" spans="4:9">
+      <c r="D49" t="s">
+        <v>670</v>
+      </c>
       <c r="I49" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="9:9">
+    <row r="50" spans="4:9">
+      <c r="D50" t="s">
+        <v>671</v>
+      </c>
       <c r="I50" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" spans="9:9">
+    <row r="51" spans="4:9">
+      <c r="D51" t="s">
+        <v>672</v>
+      </c>
       <c r="I51" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="9:9">
+    <row r="52" spans="4:9">
+      <c r="D52" t="s">
+        <v>673</v>
+      </c>
       <c r="I52" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="9:9">
+    <row r="53" spans="4:9">
+      <c r="D53" t="s">
+        <v>674</v>
+      </c>
       <c r="I53" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="9:9">
+    <row r="54" spans="4:9">
+      <c r="D54" t="s">
+        <v>675</v>
+      </c>
       <c r="I54" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="9:9">
+    <row r="55" spans="4:9">
+      <c r="D55" t="s">
+        <v>676</v>
+      </c>
       <c r="I55" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="56" spans="9:9">
+    <row r="56" spans="4:9">
+      <c r="D56" t="s">
+        <v>677</v>
+      </c>
       <c r="I56" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="57" spans="9:9">
+    <row r="57" spans="4:9">
+      <c r="D57" t="s">
+        <v>678</v>
+      </c>
       <c r="I57" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="58" spans="9:9">
+    <row r="58" spans="4:9">
+      <c r="D58" t="s">
+        <v>679</v>
+      </c>
       <c r="I58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="59" spans="9:9">
+    <row r="59" spans="4:9">
+      <c r="D59" t="s">
+        <v>680</v>
+      </c>
       <c r="I59" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="9:9">
+    <row r="60" spans="4:9">
+      <c r="D60" t="s">
+        <v>681</v>
+      </c>
       <c r="I60" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="9:9">
+    <row r="61" spans="4:9">
+      <c r="D61" t="s">
+        <v>682</v>
+      </c>
       <c r="I61" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="9:9">
+    <row r="62" spans="4:9">
+      <c r="D62" t="s">
+        <v>683</v>
+      </c>
       <c r="I62" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="9:9">
+    <row r="63" spans="4:9">
+      <c r="D63" t="s">
+        <v>684</v>
+      </c>
       <c r="I63" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="9:9">
+    <row r="64" spans="4:9">
+      <c r="D64" t="s">
+        <v>685</v>
+      </c>
       <c r="I64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="9:9">
+    <row r="65" spans="4:9">
+      <c r="D65" t="s">
+        <v>686</v>
+      </c>
       <c r="I65" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="66" spans="9:9">
+    <row r="66" spans="4:9">
+      <c r="D66" t="s">
+        <v>687</v>
+      </c>
       <c r="I66" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="67" spans="9:9">
+    <row r="67" spans="4:9">
+      <c r="D67" t="s">
+        <v>688</v>
+      </c>
       <c r="I67" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="9:9">
+    <row r="68" spans="4:9">
+      <c r="D68" t="s">
+        <v>689</v>
+      </c>
       <c r="I68" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="9:9">
+    <row r="69" spans="4:9">
+      <c r="D69" t="s">
+        <v>690</v>
+      </c>
       <c r="I69" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="70" spans="9:9">
+    <row r="70" spans="4:9">
+      <c r="D70" t="s">
+        <v>691</v>
+      </c>
       <c r="I70" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="71" spans="9:9">
+    <row r="71" spans="4:9">
+      <c r="D71" t="s">
+        <v>692</v>
+      </c>
       <c r="I71" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="72" spans="9:9">
+    <row r="72" spans="4:9">
+      <c r="D72" t="s">
+        <v>693</v>
+      </c>
       <c r="I72" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="73" spans="9:9">
+    <row r="73" spans="4:9">
+      <c r="D73" t="s">
+        <v>694</v>
+      </c>
       <c r="I73" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="9:9">
+    <row r="74" spans="4:9">
+      <c r="D74" t="s">
+        <v>695</v>
+      </c>
       <c r="I74" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="75" spans="9:9">
+    <row r="75" spans="4:9">
+      <c r="D75" t="s">
+        <v>696</v>
+      </c>
       <c r="I75" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="76" spans="9:9">
+    <row r="76" spans="4:9">
+      <c r="D76" t="s">
+        <v>697</v>
+      </c>
       <c r="I76" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="77" spans="9:9">
+    <row r="77" spans="4:9">
+      <c r="D77" t="s">
+        <v>698</v>
+      </c>
       <c r="I77" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="9:9">
+    <row r="78" spans="4:9">
+      <c r="D78" t="s">
+        <v>699</v>
+      </c>
       <c r="I78" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="9:9">
+    <row r="79" spans="4:9">
+      <c r="D79" t="s">
+        <v>700</v>
+      </c>
       <c r="I79" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="80" spans="9:9">
+    <row r="80" spans="4:9">
+      <c r="D80" t="s">
+        <v>701</v>
+      </c>
       <c r="I80" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="81" spans="9:9">
+    <row r="81" spans="4:9">
+      <c r="D81" t="s">
+        <v>702</v>
+      </c>
       <c r="I81" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="82" spans="9:9">
+    <row r="82" spans="4:9">
+      <c r="D82" t="s">
+        <v>703</v>
+      </c>
       <c r="I82" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="9:9">
+    <row r="83" spans="4:9">
+      <c r="D83" t="s">
+        <v>704</v>
+      </c>
       <c r="I83" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="84" spans="9:9">
+    <row r="84" spans="4:9">
+      <c r="D84" t="s">
+        <v>705</v>
+      </c>
       <c r="I84" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="9:9">
+    <row r="85" spans="4:9">
+      <c r="D85" t="s">
+        <v>706</v>
+      </c>
       <c r="I85" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="86" spans="9:9">
+    <row r="86" spans="4:9">
+      <c r="D86" t="s">
+        <v>707</v>
+      </c>
       <c r="I86" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="9:9">
+    <row r="87" spans="4:9">
+      <c r="D87" t="s">
+        <v>708</v>
+      </c>
       <c r="I87" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="9:9">
+    <row r="88" spans="4:9">
       <c r="I88" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="89" spans="9:9">
+    <row r="89" spans="4:9">
       <c r="I89" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="90" spans="9:9">
+    <row r="90" spans="4:9">
       <c r="I90" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="9:9">
+    <row r="91" spans="4:9">
       <c r="I91" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="92" spans="9:9">
+    <row r="92" spans="4:9">
       <c r="I92" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="9:9">
+    <row r="93" spans="4:9">
       <c r="I93" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="94" spans="9:9">
+    <row r="94" spans="4:9">
       <c r="I94" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="95" spans="9:9">
+    <row r="95" spans="4:9">
       <c r="I95" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="96" spans="9:9">
+    <row r="96" spans="4:9">
       <c r="I96" t="s">
         <v>187</v>
       </c>
@@ -5173,7 +5722,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F1B4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="988F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5360,7 +5909,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFE6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9A9D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5556,7 +6105,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F7A8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F60D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5595,8 +6144,8 @@
     <col min="9" max="9" width="99.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="105.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="49.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="45.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="47.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="56.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="37.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="87.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="182.42578125" style="4" bestFit="1" customWidth="1"/>
@@ -5784,7 +6333,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FA60" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EBAF" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -5807,7 +6356,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5841,9 +6390,10 @@
     <col min="26" max="26" width="66.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="32.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="47.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="61" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -5860,40 +6410,40 @@
         <v>488</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>501</v>
@@ -5911,16 +6461,16 @@
         <v>505</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AA1" s="2" t="s">
         <v>510</v>
@@ -5928,180 +6478,189 @@
       <c r="AB1" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="2" spans="1:28">
+      <c r="AC1" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28">
+        <v>581</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>464</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AB3" s="5" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="4" spans="1:28">
+      <c r="AC3" s="5" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
       <c r="A4" s="6" t="s">
         <v>27</v>
       </c>
@@ -6132,13 +6691,14 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CBC4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8650" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:AB4"/>
+    <mergeCell ref="A4:AC4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AB4">
+  <conditionalFormatting sqref="A1:AC4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -6198,43 +6758,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -6242,43 +6802,43 @@
         <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -6286,43 +6846,43 @@
         <v>18</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>476</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>476</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -6344,7 +6904,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BCE9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A84A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6353,7 +6913,10 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$87</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Other,Paired,Single,Vector"</formula1>
     </dataValidation>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -3060,7 +3060,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="AC77" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9C85" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3141,7 +3141,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A48E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B57A" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3348,7 +3348,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE85" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C216" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3424,7 +3424,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E460" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E995" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3546,7 +3546,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B757" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D222" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3752,7 +3752,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E65B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AA48" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3841,7 +3841,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A1CD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A3D2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5722,7 +5722,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="988F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BBDD" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5909,7 +5909,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9A9D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CF27" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6105,7 +6105,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F60D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="81C0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6333,7 +6333,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EBAF" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="EC8C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6694,7 +6694,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8650" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F495" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -6904,7 +6904,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A84A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D796" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -2514,16 +2514,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_1_checksum</t>
-  </si>
-  <si>
-    <t>read_2_checksum</t>
-  </si>
-  <si>
-    <t>index_1_checksum</t>
-  </si>
-  <si>
-    <t>index_2_checksum</t>
+    <t>read_1_file_checksum</t>
+  </si>
+  <si>
+    <t>read_2_file_checksum</t>
+  </si>
+  <si>
+    <t>index_1_file_checksum</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -2544,10 +2544,10 @@
     <t>index_1_file (optional)</t>
   </si>
   <si>
-    <t>read_2_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_2_checksum (optional)</t>
+    <t>read_2_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum (optional)</t>
   </si>
   <si>
     <t>white_list_barcode_file (optional)</t>
@@ -2571,13 +2571,13 @@
     <t>e.g. file2_r2.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 1.</t>
+    <t>The name of the file that contains index 1.</t>
   </si>
   <si>
     <t>e.g. file1_i1.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 2.</t>
+    <t>The name of the file that contains index 2.</t>
   </si>
   <si>
     <t>e.g. file2_i2.fastq.gz</t>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9C85" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8C16" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3141,7 +3141,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B57A" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A48F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3348,7 +3348,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C216" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AE21" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3424,7 +3424,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E995" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2AC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3546,7 +3546,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D222" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D2AB" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3572,7 +3572,7 @@
     <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -3752,7 +3752,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AA48" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9250" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3841,7 +3841,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A3D2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA88" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5722,7 +5722,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BBDD" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ADA1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5909,7 +5909,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CF27" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9F8D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6105,7 +6105,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="81C0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8631" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6333,7 +6333,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="EC8C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B1C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6694,7 +6694,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F495" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9743" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -6904,7 +6904,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D796" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D28C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
+++ b/dist/checklists/xlsx/faang/sc_rnaseq_faang_v0.1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="863">
   <si>
     <t>key</t>
   </si>
@@ -2494,9 +2494,6 @@
   </si>
   <si>
     <t>e.g. Barcode information used in multiplexing protocols is provided in a separate file, which can be accessed at: https://example.com/barcode_data.csv.</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>file_id</t>
@@ -3060,7 +3057,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="8C16" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B810" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3141,7 +3138,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A48F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8A2D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -3348,7 +3345,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AE21" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CB50" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
@@ -3424,7 +3421,7 @@
       <c r="D4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D2AC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B1E7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -3546,7 +3543,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D2AB" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F918" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3586,49 +3583,49 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>822</v>
+        <v>486</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>824</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>840</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3642,43 +3639,43 @@
         <v>604</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>843</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>856</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3695,40 +3692,40 @@
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3752,7 +3749,7 @@
       <c r="P4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9250" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CD29" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:P4"/>
   </mergeCells>
@@ -3841,7 +3838,7 @@
       <c r="E4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA88" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B404" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:E4"/>
   </mergeCells>
@@ -5722,7 +5719,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ADA1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8467" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -5909,7 +5906,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9F8D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="94EE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6105,7 +6102,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8631" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FA20" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -6333,7 +6330,7 @@
       <c r="Q4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B1C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D77" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Q4"/>
   </mergeCells>
@@ -6694,7 +6691,7 @@
       <c r="AC4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9743" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8389" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:AC4"/>
   </mergeCells>
@@ -6904,7 +6901,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D28C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E69E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
